--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Rarres2</t>
   </si>
   <si>
     <t>Gpr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H2">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I2">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J2">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.75858</v>
+        <v>3.175636</v>
       </c>
       <c r="N2">
-        <v>8.275739999999999</v>
+        <v>9.526908000000001</v>
       </c>
       <c r="O2">
-        <v>0.5077178793781231</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="P2">
-        <v>0.507717879378123</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="Q2">
-        <v>10.80461120434667</v>
+        <v>4.6317444969</v>
       </c>
       <c r="R2">
-        <v>97.24150083911999</v>
+        <v>41.6857004721</v>
       </c>
       <c r="S2">
-        <v>0.02966400933955556</v>
+        <v>0.01187230952384089</v>
       </c>
       <c r="T2">
-        <v>0.02966400933955555</v>
+        <v>0.01187230952384089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H3">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I3">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J3">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.025925</v>
       </c>
       <c r="O3">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="P3">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="Q3">
-        <v>7.86730573598889</v>
+        <v>2.929654086875</v>
       </c>
       <c r="R3">
-        <v>70.80575162390001</v>
+        <v>26.366886781875</v>
       </c>
       <c r="S3">
-        <v>0.02159965096528665</v>
+        <v>0.007509429792693589</v>
       </c>
       <c r="T3">
-        <v>0.02159965096528664</v>
+        <v>0.00750942979269359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H4">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I4">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J4">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6563016666666667</v>
+        <v>1.119552333333333</v>
       </c>
       <c r="N4">
-        <v>1.968905</v>
+        <v>3.358657</v>
       </c>
       <c r="O4">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="P4">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="Q4">
-        <v>2.570555989348889</v>
+        <v>1.632895066975</v>
       </c>
       <c r="R4">
-        <v>23.13500390414</v>
+        <v>14.696055602775</v>
       </c>
       <c r="S4">
-        <v>0.007057449401346302</v>
+        <v>0.004185514910862461</v>
       </c>
       <c r="T4">
-        <v>0.007057449401346299</v>
+        <v>0.004185514910862461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H5">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I5">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J5">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009769666666666666</v>
+        <v>0.450836</v>
       </c>
       <c r="N5">
-        <v>0.029309</v>
+        <v>1.352508</v>
       </c>
       <c r="O5">
-        <v>0.001798111507453522</v>
+        <v>0.06674438084725434</v>
       </c>
       <c r="P5">
-        <v>0.001798111507453522</v>
+        <v>0.06674438084725433</v>
       </c>
       <c r="Q5">
-        <v>0.03826514001022223</v>
+        <v>0.6575555769</v>
       </c>
       <c r="R5">
-        <v>0.344386260092</v>
+        <v>5.918000192099999</v>
       </c>
       <c r="S5">
-        <v>0.0001050567622633183</v>
+        <v>0.001685477975589876</v>
       </c>
       <c r="T5">
-        <v>0.0001050567622633183</v>
+        <v>0.001685477975589876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J6">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.75858</v>
+        <v>3.175636</v>
       </c>
       <c r="N6">
-        <v>8.275739999999999</v>
+        <v>9.526908000000001</v>
       </c>
       <c r="O6">
-        <v>0.5077178793781231</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="P6">
-        <v>0.507717879378123</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="Q6">
-        <v>133.8889676373333</v>
+        <v>154.1309752234667</v>
       </c>
       <c r="R6">
-        <v>1205.000708736</v>
+        <v>1387.1787770112</v>
       </c>
       <c r="S6">
-        <v>0.3675915321098746</v>
+        <v>0.3950759041845212</v>
       </c>
       <c r="T6">
-        <v>0.3675915321098744</v>
+        <v>0.3950759041845212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>145.6064</v>
       </c>
       <c r="I7">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J7">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.025925</v>
       </c>
       <c r="O7">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="P7">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="Q7">
         <v>97.49036065777779</v>
@@ -883,10 +883,10 @@
         <v>877.41324592</v>
       </c>
       <c r="S7">
-        <v>0.2676593275198587</v>
+        <v>0.2498919657797798</v>
       </c>
       <c r="T7">
-        <v>0.2676593275198587</v>
+        <v>0.2498919657797798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>145.6064</v>
       </c>
       <c r="I8">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J8">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6563016666666667</v>
+        <v>1.119552333333333</v>
       </c>
       <c r="N8">
-        <v>1.968905</v>
+        <v>3.358657</v>
       </c>
       <c r="O8">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="P8">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="Q8">
-        <v>31.85390766577778</v>
+        <v>54.33799495608889</v>
       </c>
       <c r="R8">
-        <v>286.685168992</v>
+        <v>489.0419546048</v>
       </c>
       <c r="S8">
-        <v>0.08745475395901665</v>
+        <v>0.1392817534420057</v>
       </c>
       <c r="T8">
-        <v>0.08745475395901664</v>
+        <v>0.1392817534420057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>145.6064</v>
       </c>
       <c r="I9">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J9">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009769666666666666</v>
+        <v>0.450836</v>
       </c>
       <c r="N9">
-        <v>0.029309</v>
+        <v>1.352508</v>
       </c>
       <c r="O9">
-        <v>0.001798111507453522</v>
+        <v>0.06674438084725434</v>
       </c>
       <c r="P9">
-        <v>0.001798111507453522</v>
+        <v>0.06674438084725433</v>
       </c>
       <c r="Q9">
-        <v>0.4741753308444445</v>
+        <v>21.88153565013334</v>
       </c>
       <c r="R9">
-        <v>4.2675779776</v>
+        <v>196.9338208512</v>
       </c>
       <c r="S9">
-        <v>0.001301846144829141</v>
+        <v>0.05608780110155345</v>
       </c>
       <c r="T9">
-        <v>0.00130184614482914</v>
+        <v>0.05608780110155345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H10">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I10">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J10">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.75858</v>
+        <v>3.175636</v>
       </c>
       <c r="N10">
-        <v>8.275739999999999</v>
+        <v>9.526908000000001</v>
       </c>
       <c r="O10">
-        <v>0.5077178793781231</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="P10">
-        <v>0.507717879378123</v>
+        <v>0.4701396042380186</v>
       </c>
       <c r="Q10">
-        <v>40.23402906805333</v>
+        <v>24.493115204792</v>
       </c>
       <c r="R10">
-        <v>362.10626161248</v>
+        <v>220.438036843128</v>
       </c>
       <c r="S10">
-        <v>0.110462337928693</v>
+        <v>0.06278192700590633</v>
       </c>
       <c r="T10">
-        <v>0.1104623379286929</v>
+        <v>0.06278192700590633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H11">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I11">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J11">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.025925</v>
       </c>
       <c r="O11">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="P11">
-        <v>0.3696913946416412</v>
+        <v>0.2973709827646055</v>
       </c>
       <c r="Q11">
-        <v>29.29614047951111</v>
+        <v>15.49229563678333</v>
       </c>
       <c r="R11">
-        <v>263.6652643156</v>
+        <v>139.43066073105</v>
       </c>
       <c r="S11">
-        <v>0.08043241615649588</v>
+        <v>0.03971059482185259</v>
       </c>
       <c r="T11">
-        <v>0.08043241615649586</v>
+        <v>0.0397105948218526</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H12">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I12">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J12">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6563016666666667</v>
+        <v>1.119552333333333</v>
       </c>
       <c r="N12">
-        <v>1.968905</v>
+        <v>3.358657</v>
       </c>
       <c r="O12">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="P12">
-        <v>0.1207926144727823</v>
+        <v>0.1657450321501216</v>
       </c>
       <c r="Q12">
-        <v>9.572193060951111</v>
+        <v>8.634907866684665</v>
       </c>
       <c r="R12">
-        <v>86.14973754856</v>
+        <v>77.71417080016201</v>
       </c>
       <c r="S12">
-        <v>0.02628041111241934</v>
+        <v>0.02213340977071221</v>
       </c>
       <c r="T12">
-        <v>0.02628041111241934</v>
+        <v>0.02213340977071221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.712822</v>
+      </c>
+      <c r="H13">
+        <v>23.138466</v>
+      </c>
+      <c r="I13">
+        <v>0.1335389029981009</v>
+      </c>
+      <c r="J13">
+        <v>0.133538902998101</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.450836</v>
+      </c>
+      <c r="N13">
+        <v>1.352508</v>
+      </c>
+      <c r="O13">
+        <v>0.06674438084725434</v>
+      </c>
+      <c r="P13">
+        <v>0.06674438084725433</v>
+      </c>
+      <c r="Q13">
+        <v>3.477217819192</v>
+      </c>
+      <c r="R13">
+        <v>31.294960372728</v>
+      </c>
+      <c r="S13">
+        <v>0.008912971399629802</v>
+      </c>
+      <c r="T13">
+        <v>0.008912971399629802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.58505066666667</v>
-      </c>
-      <c r="H13">
-        <v>43.755152</v>
-      </c>
-      <c r="I13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="J13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.009769666666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.029309</v>
-      </c>
-      <c r="O13">
-        <v>0.001798111507453522</v>
-      </c>
-      <c r="P13">
-        <v>0.001798111507453522</v>
-      </c>
-      <c r="Q13">
-        <v>0.1424910833297778</v>
-      </c>
-      <c r="R13">
-        <v>1.282419749968</v>
-      </c>
-      <c r="S13">
-        <v>0.0003912086003610628</v>
-      </c>
-      <c r="T13">
-        <v>0.0003912086003610628</v>
+      <c r="G14">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.150909</v>
+      </c>
+      <c r="I14">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J14">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.175636</v>
+      </c>
+      <c r="N14">
+        <v>9.526908000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4701396042380186</v>
+      </c>
+      <c r="P14">
+        <v>0.4701396042380186</v>
+      </c>
+      <c r="Q14">
+        <v>0.159744017708</v>
+      </c>
+      <c r="R14">
+        <v>1.437696159372</v>
+      </c>
+      <c r="S14">
+        <v>0.0004094635237502053</v>
+      </c>
+      <c r="T14">
+        <v>0.0004094635237502053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.150909</v>
+      </c>
+      <c r="I15">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J15">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.008641666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.025925</v>
+      </c>
+      <c r="O15">
+        <v>0.2973709827646055</v>
+      </c>
+      <c r="P15">
+        <v>0.2973709827646055</v>
+      </c>
+      <c r="Q15">
+        <v>0.1010407017583333</v>
+      </c>
+      <c r="R15">
+        <v>0.9093663158249999</v>
+      </c>
+      <c r="S15">
+        <v>0.0002589923702794711</v>
+      </c>
+      <c r="T15">
+        <v>0.0002589923702794712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J16">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.119552333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.358657</v>
+      </c>
+      <c r="O16">
+        <v>0.1657450321501216</v>
+      </c>
+      <c r="P16">
+        <v>0.1657450321501216</v>
+      </c>
+      <c r="Q16">
+        <v>0.05631684102366666</v>
+      </c>
+      <c r="R16">
+        <v>0.506851569213</v>
+      </c>
+      <c r="S16">
+        <v>0.0001443540265412758</v>
+      </c>
+      <c r="T16">
+        <v>0.0001443540265412758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.150909</v>
+      </c>
+      <c r="I17">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J17">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.450836</v>
+      </c>
+      <c r="N17">
+        <v>1.352508</v>
+      </c>
+      <c r="O17">
+        <v>0.06674438084725434</v>
+      </c>
+      <c r="P17">
+        <v>0.06674438084725433</v>
+      </c>
+      <c r="Q17">
+        <v>0.022678403308</v>
+      </c>
+      <c r="R17">
+        <v>0.204105629772</v>
+      </c>
+      <c r="S17">
+        <v>5.813037048120363E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.813037048120363E-05</v>
       </c>
     </row>
   </sheetData>
